--- a/Kenya Model/Models/without coffee/Graph_inputs.xlsx
+++ b/Kenya Model/Models/without coffee/Graph_inputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\Kenya Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\Kenya Model\Models\without coffee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D349F8-FBA2-443B-B391-101233438E43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4441A5D7-52FA-41B0-B32D-113BD0BA022F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{9FB00E9D-CEB3-42BA-85F0-61134DCC4F6B}"/>
+    <workbookView xWindow="3330" yWindow="3330" windowWidth="20460" windowHeight="10890" activeTab="5" xr2:uid="{9FB00E9D-CEB3-42BA-85F0-61134DCC4F6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Demand Technology" sheetId="1" r:id="rId1"/>
@@ -134,12 +134,6 @@
     <t>end</t>
   </si>
   <si>
-    <t>'2015-06-01 00:00:00'</t>
-  </si>
-  <si>
-    <t>'2015-06-02 23:00:00'</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
@@ -237,6 +231,12 @@
   </si>
   <si>
     <t>#ffb30f</t>
+  </si>
+  <si>
+    <t>2015-01-01 00:00:00'</t>
+  </si>
+  <si>
+    <t>2015-12-31 23:00:00'</t>
   </si>
 </sst>
 </file>
@@ -280,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -292,6 +292,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -806,7 +807,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -817,7 +818,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -828,7 +829,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -839,7 +840,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -850,7 +851,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -861,7 +862,7 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -872,7 +873,7 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -883,7 +884,7 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -891,90 +892,90 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1023,7 +1024,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,23 +1034,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
-        <v>32</v>
+      <c r="B2" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B3" t="s">
-        <v>33</v>
+      <c r="B3" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
